--- a/spliced/walkingToRunning/2023-03-24_10-02-33/accelerometer_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-24_10-02-33/accelerometer_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,222 +452,332 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>11.46146202087402</v>
+        <v>10.46308040618896</v>
       </c>
       <c r="B2" t="n">
-        <v>6.774815559387207</v>
+        <v>-2.656880855560303</v>
       </c>
       <c r="C2" t="n">
-        <v>-8.791510581970215</v>
+        <v>-2.153079509735107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>11.02793502807617</v>
+        <v>5.822948455810547</v>
       </c>
       <c r="B3" t="n">
-        <v>-10.67957305908203</v>
+        <v>0.93921160697937</v>
       </c>
       <c r="C3" t="n">
-        <v>-5.600314140319824</v>
+        <v>-1.708410024642944</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8.551541328430176</v>
+        <v>76.90617370605469</v>
       </c>
       <c r="B4" t="n">
-        <v>-2.371816396713257</v>
+        <v>-20.47752571105957</v>
       </c>
       <c r="C4" t="n">
-        <v>-3.286359786987305</v>
+        <v>-10.06823921203613</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>10.46308040618896</v>
+        <v>21.08987617492676</v>
       </c>
       <c r="B5" t="n">
-        <v>-2.656880855560303</v>
+        <v>-20.16287040710449</v>
       </c>
       <c r="C5" t="n">
-        <v>-2.153079509735107</v>
+        <v>30.18997001647949</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>5.822948455810547</v>
+        <v>10.72996425628662</v>
       </c>
       <c r="B6" t="n">
-        <v>0.93921160697937</v>
+        <v>-3.895856618881226</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.708410024642944</v>
+        <v>4.558961868286133</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>76.90617370605469</v>
+        <v>16.64472198486328</v>
       </c>
       <c r="B7" t="n">
-        <v>-20.47752571105957</v>
+        <v>-21.42762756347656</v>
       </c>
       <c r="C7" t="n">
-        <v>-10.06823921203613</v>
+        <v>6.525417804718018</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>21.08987617492676</v>
+        <v>-22.31200981140137</v>
       </c>
       <c r="B8" t="n">
-        <v>-20.16287040710449</v>
+        <v>9.699769020080566</v>
       </c>
       <c r="C8" t="n">
-        <v>30.18997001647949</v>
+        <v>-17.87223434448242</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10.72996425628662</v>
+        <v>-1.527544975280761</v>
       </c>
       <c r="B9" t="n">
-        <v>-3.895856618881226</v>
+        <v>-2.107955932617188</v>
       </c>
       <c r="C9" t="n">
-        <v>4.558961868286133</v>
+        <v>-5.828549861907959</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>16.64472198486328</v>
+        <v>25.63505172729492</v>
       </c>
       <c r="B10" t="n">
-        <v>-21.42762756347656</v>
+        <v>-27.48458480834961</v>
       </c>
       <c r="C10" t="n">
-        <v>6.525417804718018</v>
+        <v>41.41721725463867</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-22.31200981140137</v>
+        <v>9.120732307434082</v>
       </c>
       <c r="B11" t="n">
-        <v>9.699769020080566</v>
+        <v>-3.210182666778564</v>
       </c>
       <c r="C11" t="n">
-        <v>-17.87223434448242</v>
+        <v>14.09486484527588</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-1.527544975280761</v>
+        <v>10.57754039764404</v>
       </c>
       <c r="B12" t="n">
-        <v>-2.107955932617188</v>
+        <v>3.087275743484497</v>
       </c>
       <c r="C12" t="n">
-        <v>-5.828549861907959</v>
+        <v>21.89474105834961</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>25.63505172729492</v>
+        <v>-59.92874145507812</v>
       </c>
       <c r="B13" t="n">
-        <v>-27.48458480834961</v>
+        <v>-16.7760124206543</v>
       </c>
       <c r="C13" t="n">
-        <v>41.41721725463867</v>
+        <v>-37.18990707397461</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>9.120732307434082</v>
+        <v>18.34011650085449</v>
       </c>
       <c r="B14" t="n">
-        <v>-3.210182666778564</v>
+        <v>2.91422700881958</v>
       </c>
       <c r="C14" t="n">
-        <v>14.09486484527588</v>
+        <v>-21.99715805053711</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>10.57754039764404</v>
+        <v>8.823348999023438</v>
       </c>
       <c r="B15" t="n">
-        <v>3.087275743484497</v>
+        <v>-6.199845790863037</v>
       </c>
       <c r="C15" t="n">
-        <v>21.89474105834961</v>
+        <v>-2.462417125701904</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-59.92874145507812</v>
+        <v>36.45148849487305</v>
       </c>
       <c r="B16" t="n">
-        <v>-16.7760124206543</v>
+        <v>-4.319328308105469</v>
       </c>
       <c r="C16" t="n">
-        <v>-37.18990707397461</v>
+        <v>22.25251770019531</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18.34011650085449</v>
+        <v>11.48440456390381</v>
       </c>
       <c r="B17" t="n">
-        <v>2.91422700881958</v>
+        <v>5.108338356018066</v>
       </c>
       <c r="C17" t="n">
-        <v>-21.99715805053711</v>
+        <v>7.226218223571777</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>8.823348999023438</v>
+        <v>1.909540176391602</v>
       </c>
       <c r="B18" t="n">
-        <v>-6.199845790863037</v>
+        <v>-24.70354461669922</v>
       </c>
       <c r="C18" t="n">
-        <v>-2.462417125701904</v>
+        <v>-9.863640785217283</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>36.45148849487305</v>
+        <v>13.16304683685303</v>
       </c>
       <c r="B19" t="n">
-        <v>-4.319328308105469</v>
+        <v>1.566379547119141</v>
       </c>
       <c r="C19" t="n">
-        <v>22.25251770019531</v>
+        <v>-18.78874206542969</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>11.48440456390381</v>
+        <v>-26.10807037353516</v>
       </c>
       <c r="B20" t="n">
-        <v>5.108338356018066</v>
+        <v>-18.4659252166748</v>
       </c>
       <c r="C20" t="n">
-        <v>7.226218223571777</v>
+        <v>-26.81548118591309</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>1.909540176391602</v>
+        <v>0.605715274810791</v>
       </c>
       <c r="B21" t="n">
-        <v>-24.70354461669922</v>
+        <v>0.4431395530700683</v>
       </c>
       <c r="C21" t="n">
-        <v>-9.863640785217283</v>
+        <v>13.34832572937012</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>-0.1363797187805175</v>
+      </c>
+      <c r="B22" t="n">
+        <v>12.19958686828613</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.961617946624756</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>23.61079406738281</v>
+      </c>
+      <c r="B23" t="n">
+        <v>-17.57328033447266</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.193590641021729</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>-16.4272632598877</v>
+      </c>
+      <c r="B24" t="n">
+        <v>6.268374919891357</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-29.44120216369629</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>-22.77685928344727</v>
+      </c>
+      <c r="B25" t="n">
+        <v>-11.73852729797363</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-5.511547565460205</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>-20.23676681518555</v>
+      </c>
+      <c r="B26" t="n">
+        <v>-30.38065719604492</v>
+      </c>
+      <c r="C26" t="n">
+        <v>13.72379970550537</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>-0.5074601173400879</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.13600492477417</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-3.543452739715576</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>14.78357696533203</v>
+      </c>
+      <c r="B28" t="n">
+        <v>-19.61955070495605</v>
+      </c>
+      <c r="C28" t="n">
+        <v>58.06728363037109</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>-78.68696594238281</v>
+      </c>
+      <c r="B29" t="n">
+        <v>-17.28630638122559</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-26.55977630615234</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>-3.455702781677246</v>
+      </c>
+      <c r="B30" t="n">
+        <v>-1.554847240447998</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-16.96383094787598</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>-10.43552684783936</v>
+      </c>
+      <c r="B31" t="n">
+        <v>-8.621312141418457</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-5.604441642761231</v>
       </c>
     </row>
   </sheetData>
